--- a/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,87</t>
+          <t>2,57; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,38</t>
+          <t>3,76; 9,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,54</t>
+          <t>1,83; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,92</t>
+          <t>5,73; 9,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,17</t>
+          <t>11,2; 16,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,48</t>
+          <t>4,3; 8,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,93</t>
+          <t>4,82; 7,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,17</t>
+          <t>8,87; 13,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,75</t>
+          <t>3,57; 6,41</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,92</t>
+          <t>2,62; 4,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,6</t>
+          <t>1,56; 4,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,54</t>
+          <t>2,35; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,3</t>
+          <t>4,67; 6,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,54</t>
+          <t>4,74; 9,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,03</t>
+          <t>4,03; 6,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 4,83</t>
+          <t>3,84; 5,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,81</t>
+          <t>3,68; 6,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,41</t>
+          <t>3,39; 4,76</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,57</t>
+          <t>1,24; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,66</t>
+          <t>2,83; 7,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,95</t>
+          <t>0,59; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,08</t>
+          <t>3,03; 5,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,61</t>
+          <t>3,79; 8,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,46</t>
+          <t>1,47; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,98</t>
+          <t>2,5; 4,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,78</t>
+          <t>3,87; 7,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,01</t>
+          <t>1,22; 2,73</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,37</t>
+          <t>2,59; 3,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,15</t>
+          <t>2,34; 4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,18</t>
+          <t>2,01; 3,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,63</t>
+          <t>4,82; 6,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 9,96</t>
+          <t>6,21; 9,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,64</t>
+          <t>3,79; 5,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 4,23</t>
+          <t>3,94; 4,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 7,46</t>
+          <t>4,71; 7,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,29</t>
+          <t>3,11; 4,12</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante la ansiedad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9542</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54121</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16506</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13166</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>68435</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23119</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2256; 6042</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8585; 22780</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3953; 10662</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7317; 12483</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>44292; 64450</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11772; 23053</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10388; 16607</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>55361; 82254</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17485; 31365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15024</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39468</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26056</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24252</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>106358</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44088</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39276</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>145826</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70143</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11839; 18872</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22031; 56540</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20273; 34432</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20162; 28816</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>65641; 138138</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35071; 55302</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33975; 44760</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>102901; 180323</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58630; 82493</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3184</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22164</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7906</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25478</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11089</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47643</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14519</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1873; 4981</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12941; 33878</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2219; 8801</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5904; 10715</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16823; 36473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6110; 15750</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8627; 14027</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34910; 65249</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9652; 21630</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21833</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>75947</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37273</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41699</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>185957</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>70509</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63532</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>261904</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107781</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17894; 26060</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48935; 96892</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29233; 47886</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36368; 47755</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>138098; 219571</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>59041; 83871</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56873; 70824</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>203632; 302753</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93682; 124081</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad</t>
+          <t>Vulnerabilidad ante la ansiedad (tasa de respuesta: 99,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,88</t>
+          <t>2,43; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,98</t>
+          <t>3,71; 9,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,78</t>
+          <t>5,84; 9,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 16,29</t>
+          <t>10,97; 16,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,71</t>
+          <t>4,8; 7,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,18</t>
+          <t>9,13; 13,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,18</t>
+          <t>2,47; 3,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,01</t>
+          <t>1,61; 4,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,68</t>
+          <t>4,54; 6,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,97</t>
+          <t>4,61; 9,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,07</t>
+          <t>3,76; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,45</t>
+          <t>3,58; 6,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,3</t>
+          <t>1,49; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,4</t>
+          <t>2,91; 7,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,5</t>
+          <t>2,69; 4,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,23</t>
+          <t>3,88; 8,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,06</t>
+          <t>2,46; 3,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,24</t>
+          <t>4,0; 7,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,77</t>
+          <t>2,48; 3,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,63</t>
+          <t>2,38; 4,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,33</t>
+          <t>4,65; 6,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,87</t>
+          <t>6,24; 9,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 4,9</t>
+          <t>3,79; 4,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,01</t>
+          <t>4,87; 7,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9542</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13166</t>
+          <t>12489</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2256; 6042</t>
+          <t>2001; 4873</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8585; 22780</t>
+          <t>8466; 22725</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7317; 12483</t>
+          <t>7089; 12043</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44292; 64450</t>
+          <t>43388; 65458</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10388; 16607</t>
+          <t>9771; 15592</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55361; 82254</t>
+          <t>56982; 81489</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15024</t>
+          <t>14246</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24252</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39276</t>
+          <t>38583</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11839; 18872</t>
+          <t>11384; 18124</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22031; 56540</t>
+          <t>22714; 57013</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20162; 28816</t>
+          <t>20197; 28950</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65641; 138138</t>
+          <t>63788; 135107</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33975; 44760</t>
+          <t>34040; 45149</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>102901; 180323</t>
+          <t>99926; 182451</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7906</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11089</t>
+          <t>12634</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1873; 4981</t>
+          <t>2616; 6534</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12941; 33878</t>
+          <t>13308; 33951</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5904; 10715</t>
+          <t>6150; 11112</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16823; 36473</t>
+          <t>17209; 36799</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8627; 14027</t>
+          <t>9921; 15891</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34910; 65249</t>
+          <t>36016; 63752</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41699</t>
+          <t>42033</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>63532</t>
+          <t>63706</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17894; 26060</t>
+          <t>17800; 26245</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48935; 96892</t>
+          <t>49800; 97192</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36368; 47755</t>
+          <t>36969; 48078</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>138098; 219571</t>
+          <t>138674; 218763</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56873; 70824</t>
+          <t>57361; 71920</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>203632; 302753</t>
+          <t>210428; 307297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_ANS-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,9%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,65%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,68%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>6,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,47; 9,16</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 4,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,43; 5,93</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 9,95</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 4,94</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>11,35; 16,76</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 8,42</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>5,84; 9,92</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,97; 16,55</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 8,42</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>9,17; 12,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 6,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>4,8; 7,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,13; 13,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 6,41</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3,09%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,47%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>4,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,4; 4,82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 4,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,47; 3,93</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 4,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 4,0</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>7,98; 10,89</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 6,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>4,54; 6,51</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 9,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,03; 6,36</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>5,46; 7,34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 4,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>3,76; 4,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 6,53</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 4,76</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,41%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,68%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,13%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,07; 7,82</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 2,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,49; 3,73</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 7,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 2,32</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,06; 8,27</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 3,8</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,69; 4,86</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 8,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 3,8</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4,16; 7,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 2,73</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,46; 3,93</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 7,07</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,73</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,02%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,29%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,21%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,22; 5,12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 3,29</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,48; 3,65</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 4,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 3,29</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>8,35; 10,68</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 5,38</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,65; 6,05</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 9,84</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 5,38</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,2; 7,64</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 4,12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,79; 4,75</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 7,12</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 4,12</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>77</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>14840</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6613</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3202</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>14314</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6613</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>60749</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16506</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>9286</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>54121</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>16506</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>75589</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23119</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>12489</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>68435</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>23119</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8873; 23391</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3953; 10662</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2001; 4873</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8466; 22725</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3953; 10662</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>49146; 72588</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11772; 23053</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7089; 12043</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>43388; 65458</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11772; 23053</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>63112; 89401</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17485; 31365</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>9771; 15592</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>56982; 81489</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17485; 31365</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>142</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>222</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>43349</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26056</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>14246</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>39468</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>26056</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>118556</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44088</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>24337</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>106358</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44088</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>161904</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>70143</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>38583</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>145826</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>70143</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>30912; 62029</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20273; 34432</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>11384; 18124</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>22714; 57013</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>20273; 34432</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>101402; 138259</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35071; 55302</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>20197; 28950</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>63788; 135107</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>35071; 55302</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>139499; 187622</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58630; 82493</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>34040; 45149</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>99926; 182451</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>58630; 82493</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>69</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>25471</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4224</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>22164</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4604</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>28592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>8410</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>25478</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9915</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>54063</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14519</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>12634</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>47643</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>14519</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>15591; 39736</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2219; 8801</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2616; 6534</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13308; 33951</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2219; 8801</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20110; 41021</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6110; 15750</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6150; 11112</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17209; 36799</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6110; 15750</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>41759; 71373</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9652; 21630</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>9921; 15891</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>36016; 63752</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9652; 21630</t>
         </is>
       </c>
     </row>
@@ -1705,34 +1705,34 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>248</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
           <t>368</t>
@@ -1740,12 +1740,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>368</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>83660</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37273</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>21672</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>75947</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>37273</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>207896</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>70509</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>42033</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>185957</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>70509</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>291556</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>107781</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>63706</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>261904</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>107781</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>65989; 104921</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29233; 47886</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>17800; 26245</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>49800; 97192</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>29233; 47886</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>183536; 234892</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59041; 83871</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>36969; 48078</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>138674; 218763</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>59041; 83871</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>263379; 324539</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93682; 124081</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>57361; 71920</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>210428; 307297</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>93682; 124081</t>
         </is>
       </c>
     </row>
